--- a/data/pca/factorExposure/factorExposure_2019-06-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1176721745870744</v>
+        <v>-0.07820709186522856</v>
       </c>
       <c r="C2">
-        <v>-0.01256442968738216</v>
+        <v>0.01487341612024051</v>
       </c>
       <c r="D2">
-        <v>-0.06742077577923619</v>
+        <v>0.03548239228948519</v>
       </c>
       <c r="E2">
-        <v>0.08428988917159007</v>
+        <v>-0.1367268815728666</v>
       </c>
       <c r="F2">
-        <v>-0.05898625603695492</v>
+        <v>-0.009651641189390631</v>
       </c>
       <c r="G2">
-        <v>0.06129894077679256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.07699195777000879</v>
+      </c>
+      <c r="H2">
+        <v>0.07912759585117875</v>
+      </c>
+      <c r="I2">
+        <v>0.07955684456572269</v>
+      </c>
+      <c r="J2">
+        <v>-0.03433698489032762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.1959657873825762</v>
+        <v>-0.154378251265388</v>
       </c>
       <c r="C3">
-        <v>0.09138284034750684</v>
+        <v>0.09552829760864212</v>
       </c>
       <c r="D3">
-        <v>-0.05303014265229238</v>
+        <v>-0.04218673485664283</v>
       </c>
       <c r="E3">
-        <v>0.3061015995333669</v>
+        <v>-0.3636102878757109</v>
       </c>
       <c r="F3">
-        <v>0.02506352425040962</v>
+        <v>-0.1138889208389834</v>
       </c>
       <c r="G3">
-        <v>0.2937214491880482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.02195586641725176</v>
+      </c>
+      <c r="H3">
+        <v>0.2755411001173552</v>
+      </c>
+      <c r="I3">
+        <v>0.1612463349610828</v>
+      </c>
+      <c r="J3">
+        <v>0.06045364603489752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09329131676648716</v>
+        <v>-0.07234453489221954</v>
       </c>
       <c r="C4">
-        <v>0.01950842066283797</v>
+        <v>0.03049539203124796</v>
       </c>
       <c r="D4">
-        <v>-0.03440661184835202</v>
+        <v>0.02381432253428961</v>
       </c>
       <c r="E4">
-        <v>0.08192695374671098</v>
+        <v>-0.08675899557020647</v>
       </c>
       <c r="F4">
-        <v>-0.03654667742059337</v>
+        <v>-0.0539373190256089</v>
       </c>
       <c r="G4">
-        <v>0.02121049544854429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03382622620744022</v>
+      </c>
+      <c r="H4">
+        <v>0.03987880400038173</v>
+      </c>
+      <c r="I4">
+        <v>0.01181797892710795</v>
+      </c>
+      <c r="J4">
+        <v>0.04212505009731494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.009845396714584526</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.005382698170967207</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.002114397409632973</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.006354204178764764</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0003847500126125365</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01335019487423374</v>
+      </c>
+      <c r="H6">
+        <v>0.001666631181883649</v>
+      </c>
+      <c r="I6">
+        <v>0.00143593516328916</v>
+      </c>
+      <c r="J6">
+        <v>0.001519477520223616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04030149192570462</v>
+        <v>-0.03470199136838424</v>
       </c>
       <c r="C7">
-        <v>0.003591881591816034</v>
+        <v>0.01522087929508594</v>
       </c>
       <c r="D7">
-        <v>-0.04780461639420406</v>
+        <v>0.01779039889877159</v>
       </c>
       <c r="E7">
-        <v>0.05952370433830908</v>
+        <v>-0.05768580081025486</v>
       </c>
       <c r="F7">
-        <v>0.05489633194901929</v>
+        <v>-0.02817332804397804</v>
       </c>
       <c r="G7">
-        <v>0.0225914308652072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01865743030388277</v>
+      </c>
+      <c r="H7">
+        <v>0.04479582628844248</v>
+      </c>
+      <c r="I7">
+        <v>-0.005547915944032008</v>
+      </c>
+      <c r="J7">
+        <v>0.03064799191605757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.03810980376424635</v>
+        <v>-0.02990532839041756</v>
       </c>
       <c r="C8">
-        <v>0.03545572367548138</v>
+        <v>0.03651278074371435</v>
       </c>
       <c r="D8">
-        <v>-0.01980153587627219</v>
+        <v>0.009020519967540476</v>
       </c>
       <c r="E8">
-        <v>0.0672933333709007</v>
+        <v>-0.07760913977057669</v>
       </c>
       <c r="F8">
-        <v>0.004778154751102538</v>
+        <v>-0.04611458066629035</v>
       </c>
       <c r="G8">
-        <v>0.04338214483129931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.004398290791766698</v>
+      </c>
+      <c r="H8">
+        <v>0.05635524674479258</v>
+      </c>
+      <c r="I8">
+        <v>0.03441181814662243</v>
+      </c>
+      <c r="J8">
+        <v>0.02211954409606695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08264413980107982</v>
+        <v>-0.06154916981993579</v>
       </c>
       <c r="C9">
-        <v>0.02055991684361047</v>
+        <v>0.02953524509995041</v>
       </c>
       <c r="D9">
-        <v>-0.04445296962790822</v>
+        <v>0.02548911668021768</v>
       </c>
       <c r="E9">
-        <v>0.07136110035281992</v>
+        <v>-0.0836720514015146</v>
       </c>
       <c r="F9">
-        <v>-0.02155458292269847</v>
+        <v>-0.05869958617568465</v>
       </c>
       <c r="G9">
-        <v>0.01974134623446323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02202645895166728</v>
+      </c>
+      <c r="H9">
+        <v>0.03592449426488103</v>
+      </c>
+      <c r="I9">
+        <v>0.008742660334771942</v>
+      </c>
+      <c r="J9">
+        <v>0.01000866870612105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.02147250943558814</v>
+        <v>-0.005322976122515196</v>
       </c>
       <c r="C10">
-        <v>-0.1594515146472348</v>
+        <v>-0.1571293654964572</v>
       </c>
       <c r="D10">
-        <v>-0.002188941380854821</v>
+        <v>-0.01734347351440418</v>
       </c>
       <c r="E10">
-        <v>0.0481904874728334</v>
+        <v>-0.05071469844480721</v>
       </c>
       <c r="F10">
-        <v>0.005053551341190626</v>
+        <v>-0.006657052306819716</v>
       </c>
       <c r="G10">
-        <v>-0.01529589678973828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01172690880304667</v>
+      </c>
+      <c r="H10">
+        <v>-0.02121710245577969</v>
+      </c>
+      <c r="I10">
+        <v>0.1073006902407938</v>
+      </c>
+      <c r="J10">
+        <v>0.0655117177341229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05933111057952072</v>
+        <v>-0.05057941204011551</v>
       </c>
       <c r="C11">
-        <v>-0.0006481948839091786</v>
+        <v>0.01631141636882733</v>
       </c>
       <c r="D11">
-        <v>-0.004688833593127954</v>
+        <v>0.005120779523149225</v>
       </c>
       <c r="E11">
-        <v>0.04497617534752419</v>
+        <v>-0.04872434216496244</v>
       </c>
       <c r="F11">
-        <v>0.004604305312116593</v>
+        <v>-0.00342982904543181</v>
       </c>
       <c r="G11">
-        <v>-0.01140804880609712</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.0006027476944572465</v>
+      </c>
+      <c r="H11">
+        <v>0.02073885399772741</v>
+      </c>
+      <c r="I11">
+        <v>-0.01157120683292449</v>
+      </c>
+      <c r="J11">
+        <v>-0.004179018975807616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.0491865858640641</v>
+        <v>-0.04856245451461138</v>
       </c>
       <c r="C12">
-        <v>0.002854027639313063</v>
+        <v>0.01669338392852739</v>
       </c>
       <c r="D12">
-        <v>-0.006578116387684649</v>
+        <v>0.007957773582936395</v>
       </c>
       <c r="E12">
-        <v>0.02414120168069471</v>
+        <v>-0.02510404902520489</v>
       </c>
       <c r="F12">
-        <v>0.009549852037159271</v>
+        <v>-0.01898192504453666</v>
       </c>
       <c r="G12">
-        <v>0.000310084730014213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.003611647800211709</v>
+      </c>
+      <c r="H12">
+        <v>0.01051318550718272</v>
+      </c>
+      <c r="I12">
+        <v>-0.01936258428586253</v>
+      </c>
+      <c r="J12">
+        <v>-0.007220989971811858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05522690070684597</v>
+        <v>-0.03828742279818866</v>
       </c>
       <c r="C13">
-        <v>0.01906281338254027</v>
+        <v>0.02269988466697153</v>
       </c>
       <c r="D13">
-        <v>-0.02159064816178155</v>
+        <v>0.004925794461302023</v>
       </c>
       <c r="E13">
-        <v>0.108406563024441</v>
+        <v>-0.1053563357491364</v>
       </c>
       <c r="F13">
-        <v>-0.0008732885343142996</v>
+        <v>-0.008098923046324679</v>
       </c>
       <c r="G13">
-        <v>0.01294861746424257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.001486464358391089</v>
+      </c>
+      <c r="H13">
+        <v>0.05324012356619773</v>
+      </c>
+      <c r="I13">
+        <v>0.03557418213109814</v>
+      </c>
+      <c r="J13">
+        <v>-0.01739959027662541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03775758384020846</v>
+        <v>-0.02850265614554509</v>
       </c>
       <c r="C14">
-        <v>0.006557047700445791</v>
+        <v>0.01476458551005997</v>
       </c>
       <c r="D14">
-        <v>-0.0227026706931608</v>
+        <v>0.0206393513640863</v>
       </c>
       <c r="E14">
-        <v>0.01882483331184125</v>
+        <v>-0.03783571335446883</v>
       </c>
       <c r="F14">
-        <v>0.006048003176730314</v>
+        <v>-0.01950509321265685</v>
       </c>
       <c r="G14">
-        <v>0.03110860793373063</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01204476592094231</v>
+      </c>
+      <c r="H14">
+        <v>0.06215204785202605</v>
+      </c>
+      <c r="I14">
+        <v>0.02405704856373738</v>
+      </c>
+      <c r="J14">
+        <v>0.01456519096000957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.05184393698259547</v>
+        <v>-0.04275705092960656</v>
       </c>
       <c r="C16">
-        <v>0.01688773874022348</v>
+        <v>0.02544592050783215</v>
       </c>
       <c r="D16">
-        <v>0.007912147820803734</v>
+        <v>-0.001228203094132059</v>
       </c>
       <c r="E16">
-        <v>0.04807330172354381</v>
+        <v>-0.04510973154041447</v>
       </c>
       <c r="F16">
-        <v>0.005828658903255894</v>
+        <v>-0.007315193671144452</v>
       </c>
       <c r="G16">
-        <v>-0.003254224552821648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005338675493366501</v>
+      </c>
+      <c r="H16">
+        <v>0.02061272556882448</v>
+      </c>
+      <c r="I16">
+        <v>-0.01391219689625569</v>
+      </c>
+      <c r="J16">
+        <v>3.660361930723214e-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.0436421930217229</v>
+        <v>-0.04577702372951027</v>
       </c>
       <c r="C19">
-        <v>0.03067944188072143</v>
+        <v>0.03346659063073047</v>
       </c>
       <c r="D19">
-        <v>-0.01993239605143276</v>
+        <v>0.007935756753979846</v>
       </c>
       <c r="E19">
-        <v>0.0734714014746035</v>
+        <v>-0.09288916909190822</v>
       </c>
       <c r="F19">
-        <v>0.01049814530560959</v>
+        <v>-0.03024140986521855</v>
       </c>
       <c r="G19">
-        <v>0.02923651365934706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.00864883938875115</v>
+      </c>
+      <c r="H19">
+        <v>0.07483289559494428</v>
+      </c>
+      <c r="I19">
+        <v>0.07002358894410345</v>
+      </c>
+      <c r="J19">
+        <v>-0.001922829950611063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03193970965587069</v>
+        <v>-0.01698376094951437</v>
       </c>
       <c r="C20">
-        <v>0.03483614639505999</v>
+        <v>0.0334766332565154</v>
       </c>
       <c r="D20">
-        <v>-0.02301670263577755</v>
+        <v>0.01283865326525707</v>
       </c>
       <c r="E20">
-        <v>0.06685945119940062</v>
+        <v>-0.07206400105483812</v>
       </c>
       <c r="F20">
-        <v>0.02043523717216376</v>
+        <v>-0.03334922303518683</v>
       </c>
       <c r="G20">
-        <v>0.03804576583905731</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01284039396051973</v>
+      </c>
+      <c r="H20">
+        <v>0.07713000880556323</v>
+      </c>
+      <c r="I20">
+        <v>0.01805312544316633</v>
+      </c>
+      <c r="J20">
+        <v>0.02300423819146563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.0345966113217547</v>
+        <v>-0.01670082344418026</v>
       </c>
       <c r="C21">
-        <v>0.02239054421622114</v>
+        <v>0.0271400252549348</v>
       </c>
       <c r="D21">
-        <v>-0.01389907318121992</v>
+        <v>-0.01036719309641774</v>
       </c>
       <c r="E21">
-        <v>0.09246118510834635</v>
+        <v>-0.08225228597067696</v>
       </c>
       <c r="F21">
-        <v>-0.02434213293136108</v>
+        <v>-0.02770673778158177</v>
       </c>
       <c r="G21">
-        <v>0.01938244917910421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01360313127188722</v>
+      </c>
+      <c r="H21">
+        <v>0.04447987399446064</v>
+      </c>
+      <c r="I21">
+        <v>0.01574853714077163</v>
+      </c>
+      <c r="J21">
+        <v>-0.0233226254177532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04637388624880893</v>
+        <v>-0.0406724788535314</v>
       </c>
       <c r="C24">
-        <v>0.01115780731089247</v>
+        <v>0.01588410198927542</v>
       </c>
       <c r="D24">
-        <v>-0.01149020415849265</v>
+        <v>0.00506011580564904</v>
       </c>
       <c r="E24">
-        <v>0.05410590765828744</v>
+        <v>-0.04974199310790733</v>
       </c>
       <c r="F24">
-        <v>0.008524372539435552</v>
+        <v>-0.007719806135235389</v>
       </c>
       <c r="G24">
-        <v>-0.01021539573831544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01197416054557749</v>
+      </c>
+      <c r="H24">
+        <v>0.01635771481053237</v>
+      </c>
+      <c r="I24">
+        <v>-0.009925693085210761</v>
+      </c>
+      <c r="J24">
+        <v>0.001274128685214401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05039016828057485</v>
+        <v>-0.04371902966852383</v>
       </c>
       <c r="C25">
-        <v>-0.000401130250717876</v>
+        <v>0.01602733754014814</v>
       </c>
       <c r="D25">
-        <v>-0.006189842788945376</v>
+        <v>0.004462744760398899</v>
       </c>
       <c r="E25">
-        <v>0.04250492760907591</v>
+        <v>-0.04785308344235332</v>
       </c>
       <c r="F25">
-        <v>0.006570678695973797</v>
+        <v>-0.01063935799915555</v>
       </c>
       <c r="G25">
-        <v>-0.01380513928714408</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.006130374252154409</v>
+      </c>
+      <c r="H25">
+        <v>0.009482138808239908</v>
+      </c>
+      <c r="I25">
+        <v>-0.01246043785728104</v>
+      </c>
+      <c r="J25">
+        <v>-0.01002392454918264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.001801457642745846</v>
+        <v>-0.006986557327986742</v>
       </c>
       <c r="C26">
-        <v>0.01944388219418287</v>
+        <v>0.01914651523855792</v>
       </c>
       <c r="D26">
-        <v>-0.02089177370923784</v>
+        <v>-0.003868606538947066</v>
       </c>
       <c r="E26">
-        <v>0.05158824104043586</v>
+        <v>-0.0583300903712007</v>
       </c>
       <c r="F26">
-        <v>-0.006729750982262056</v>
+        <v>0.001449591374345706</v>
       </c>
       <c r="G26">
-        <v>0.01351470969322241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.002528889957090923</v>
+      </c>
+      <c r="H26">
+        <v>0.03601541794202343</v>
+      </c>
+      <c r="I26">
+        <v>-0.001773700457332436</v>
+      </c>
+      <c r="J26">
+        <v>0.01278406579642489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1094565769164893</v>
+        <v>-0.08872000378307279</v>
       </c>
       <c r="C27">
-        <v>0.004943441882284481</v>
+        <v>0.01699949127219107</v>
       </c>
       <c r="D27">
-        <v>-0.05084226796761111</v>
+        <v>0.0294537371629247</v>
       </c>
       <c r="E27">
-        <v>0.1055351570401124</v>
+        <v>-0.0882634413155388</v>
       </c>
       <c r="F27">
-        <v>0.008261461350502831</v>
+        <v>-0.04475254174757367</v>
       </c>
       <c r="G27">
-        <v>-0.01806606563032913</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.00301009557383783</v>
+      </c>
+      <c r="H27">
+        <v>0.01085402938538737</v>
+      </c>
+      <c r="I27">
+        <v>-0.002559021547844702</v>
+      </c>
+      <c r="J27">
+        <v>0.01754104538190182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.02493799896600189</v>
+        <v>-0.01193236111719726</v>
       </c>
       <c r="C28">
-        <v>-0.2308406069576867</v>
+        <v>-0.2243711782793123</v>
       </c>
       <c r="D28">
-        <v>0.01208582806710627</v>
+        <v>-0.02551695699119051</v>
       </c>
       <c r="E28">
-        <v>0.03599419296966961</v>
+        <v>-0.04009502889449484</v>
       </c>
       <c r="F28">
-        <v>-0.0002514892363592599</v>
+        <v>-0.003356091971325727</v>
       </c>
       <c r="G28">
-        <v>-0.04426342642560854</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01522500905282549</v>
+      </c>
+      <c r="H28">
+        <v>-0.0440998175333378</v>
+      </c>
+      <c r="I28">
+        <v>0.1411631727071075</v>
+      </c>
+      <c r="J28">
+        <v>0.09651733089193951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.01887359981255054</v>
+        <v>-0.01945591688699693</v>
       </c>
       <c r="C29">
-        <v>0.01929112441657068</v>
+        <v>0.0217158707071742</v>
       </c>
       <c r="D29">
-        <v>-0.02624219434469306</v>
+        <v>0.01667338734615743</v>
       </c>
       <c r="E29">
-        <v>0.03350404633986513</v>
+        <v>-0.03668600409130578</v>
       </c>
       <c r="F29">
-        <v>-0.003163873757471615</v>
+        <v>-0.03008439373011862</v>
       </c>
       <c r="G29">
-        <v>0.035862734281259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01620775431137287</v>
+      </c>
+      <c r="H29">
+        <v>0.06113038942138661</v>
+      </c>
+      <c r="I29">
+        <v>0.01187597504316405</v>
+      </c>
+      <c r="J29">
+        <v>0.01937180471315557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1040991789515036</v>
+        <v>-0.1028292508685526</v>
       </c>
       <c r="C30">
-        <v>-0.0005861841303820353</v>
+        <v>0.02645172696106656</v>
       </c>
       <c r="D30">
-        <v>-0.04594859624208147</v>
+        <v>0.0310073387463726</v>
       </c>
       <c r="E30">
-        <v>0.1204753412675238</v>
+        <v>-0.1130899770557951</v>
       </c>
       <c r="F30">
-        <v>0.01458231000602718</v>
+        <v>-0.01363524690988033</v>
       </c>
       <c r="G30">
-        <v>-0.08082919556867883</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.02531404868318073</v>
+      </c>
+      <c r="H30">
+        <v>0.01012523094699311</v>
+      </c>
+      <c r="I30">
+        <v>-0.02725102535042668</v>
+      </c>
+      <c r="J30">
+        <v>-0.02136459661910398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05247300508396151</v>
+        <v>-0.05634119680437789</v>
       </c>
       <c r="C31">
-        <v>0.01090754116567832</v>
+        <v>0.01662231864297592</v>
       </c>
       <c r="D31">
-        <v>-0.0188147957534986</v>
+        <v>0.01525868328857271</v>
       </c>
       <c r="E31">
-        <v>-0.0068231669446314</v>
+        <v>-0.01900281874698207</v>
       </c>
       <c r="F31">
-        <v>-0.008461510870974938</v>
+        <v>0.01867650154269257</v>
       </c>
       <c r="G31">
-        <v>0.0180909870233552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03277528963098758</v>
+      </c>
+      <c r="H31">
+        <v>0.04831166830818753</v>
+      </c>
+      <c r="I31">
+        <v>0.01444536156930132</v>
+      </c>
+      <c r="J31">
+        <v>0.01986033463973042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06493377147025811</v>
+        <v>-0.04690900159247099</v>
       </c>
       <c r="C32">
-        <v>0.02223013477458168</v>
+        <v>0.04402586624649259</v>
       </c>
       <c r="D32">
-        <v>-0.03735420005281413</v>
+        <v>0.01955806035242798</v>
       </c>
       <c r="E32">
-        <v>0.1083787875430542</v>
+        <v>-0.09927011092967364</v>
       </c>
       <c r="F32">
-        <v>0.03703231452044096</v>
+        <v>-0.03895516214146141</v>
       </c>
       <c r="G32">
-        <v>0.004166171196649154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01878559998796347</v>
+      </c>
+      <c r="H32">
+        <v>0.0589134354695285</v>
+      </c>
+      <c r="I32">
+        <v>0.04019919123584304</v>
+      </c>
+      <c r="J32">
+        <v>-0.02117017595723936</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06526041876663127</v>
+        <v>-0.05799201143142853</v>
       </c>
       <c r="C33">
-        <v>0.02597257106203043</v>
+        <v>0.04007144344999078</v>
       </c>
       <c r="D33">
-        <v>-0.03278736502798862</v>
+        <v>0.004694174058735071</v>
       </c>
       <c r="E33">
-        <v>0.06823521740362283</v>
+        <v>-0.08892338595449825</v>
       </c>
       <c r="F33">
-        <v>-0.0170279892732506</v>
+        <v>-0.01138186507910367</v>
       </c>
       <c r="G33">
-        <v>0.005624099399270738</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01135649007379934</v>
+      </c>
+      <c r="H33">
+        <v>0.05275312331138767</v>
+      </c>
+      <c r="I33">
+        <v>-0.00872686325168876</v>
+      </c>
+      <c r="J33">
+        <v>-0.00162140744066918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04549113795108579</v>
+        <v>-0.0420244384327166</v>
       </c>
       <c r="C34">
-        <v>0.01145248313739372</v>
+        <v>0.02063109602799229</v>
       </c>
       <c r="D34">
-        <v>0.0002392302674882493</v>
+        <v>0.008505244731302928</v>
       </c>
       <c r="E34">
-        <v>0.02705893579672432</v>
+        <v>-0.03844087687730736</v>
       </c>
       <c r="F34">
-        <v>0.008093908813329248</v>
+        <v>-0.008603982155912491</v>
       </c>
       <c r="G34">
-        <v>0.006541946788426318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.003509301932667051</v>
+      </c>
+      <c r="H34">
+        <v>0.02420735168104912</v>
+      </c>
+      <c r="I34">
+        <v>-0.00518258411325093</v>
+      </c>
+      <c r="J34">
+        <v>-0.01268916048786919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.008881060621377406</v>
+        <v>-0.01225613048598805</v>
       </c>
       <c r="C36">
-        <v>-0.006635743816022106</v>
+        <v>0.001402791116096863</v>
       </c>
       <c r="D36">
-        <v>-0.01071763822527511</v>
+        <v>0.005341964366502282</v>
       </c>
       <c r="E36">
-        <v>0.02505109764609704</v>
+        <v>-0.0296350179526553</v>
       </c>
       <c r="F36">
-        <v>-0.001168318482710293</v>
+        <v>-0.01149422238814775</v>
       </c>
       <c r="G36">
-        <v>0.001197816272330784</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.009887171103700266</v>
+      </c>
+      <c r="H36">
+        <v>0.03624007783131412</v>
+      </c>
+      <c r="I36">
+        <v>0.01426411282104236</v>
+      </c>
+      <c r="J36">
+        <v>-0.003485777764647188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05148074468133973</v>
+        <v>-0.0294726631743029</v>
       </c>
       <c r="C38">
-        <v>0.004660488630406834</v>
+        <v>0.01007323663320285</v>
       </c>
       <c r="D38">
-        <v>-0.03268362567083229</v>
+        <v>0.00710660739656776</v>
       </c>
       <c r="E38">
-        <v>0.02582810597538093</v>
+        <v>-0.04658254195285647</v>
       </c>
       <c r="F38">
-        <v>-0.001978590394758192</v>
+        <v>-0.01993306501074201</v>
       </c>
       <c r="G38">
-        <v>0.01179788258293628</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01664376128157751</v>
+      </c>
+      <c r="H38">
+        <v>0.009997101046142003</v>
+      </c>
+      <c r="I38">
+        <v>0.01045358714459461</v>
+      </c>
+      <c r="J38">
+        <v>-0.01280248959325947</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07634518093184139</v>
+        <v>-0.06296116688962579</v>
       </c>
       <c r="C39">
-        <v>0.008009685463011239</v>
+        <v>0.02772947112460781</v>
       </c>
       <c r="D39">
-        <v>-0.01555737736296546</v>
+        <v>0.01897620895985137</v>
       </c>
       <c r="E39">
-        <v>0.04624792043013539</v>
+        <v>-0.06268799844230939</v>
       </c>
       <c r="F39">
-        <v>-0.006266745606004769</v>
+        <v>-0.001587934814104799</v>
       </c>
       <c r="G39">
-        <v>-0.01591334463683755</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.003680225735292263</v>
+      </c>
+      <c r="H39">
+        <v>0.02228288134206399</v>
+      </c>
+      <c r="I39">
+        <v>-0.01747588610484303</v>
+      </c>
+      <c r="J39">
+        <v>-0.02003666442472257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.06736705489525792</v>
+        <v>-0.05460620718462037</v>
       </c>
       <c r="C40">
-        <v>0.03038667558893624</v>
+        <v>0.03451138483647514</v>
       </c>
       <c r="D40">
-        <v>-0.03328861201971353</v>
+        <v>0.02171574944010305</v>
       </c>
       <c r="E40">
-        <v>0.106466812917407</v>
+        <v>-0.1122999905544804</v>
       </c>
       <c r="F40">
-        <v>-0.007814438082335754</v>
+        <v>-0.0008474579638609043</v>
       </c>
       <c r="G40">
-        <v>0.04823572432693117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.007343347687567828</v>
+      </c>
+      <c r="H40">
+        <v>0.07831075052515264</v>
+      </c>
+      <c r="I40">
+        <v>0.02735442153246678</v>
+      </c>
+      <c r="J40">
+        <v>-0.0050230738332546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.002842591085175616</v>
+        <v>-0.000360750828964153</v>
       </c>
       <c r="C41">
-        <v>0.00623204401005778</v>
+        <v>0.008341881460449613</v>
       </c>
       <c r="D41">
-        <v>-0.01833937619170193</v>
+        <v>0.003565887091696741</v>
       </c>
       <c r="E41">
-        <v>0.01533934891815849</v>
+        <v>-0.01888985331558615</v>
       </c>
       <c r="F41">
-        <v>-0.02269544742266316</v>
+        <v>-0.008211851311486516</v>
       </c>
       <c r="G41">
-        <v>0.02465491015029689</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02814499004713368</v>
+      </c>
+      <c r="H41">
+        <v>0.04211272683219904</v>
+      </c>
+      <c r="I41">
+        <v>0.01643083429654083</v>
+      </c>
+      <c r="J41">
+        <v>0.02850323497298764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1573498440348805</v>
+        <v>-0.2437787601003439</v>
       </c>
       <c r="C42">
-        <v>0.1615927383390411</v>
+        <v>0.1543173395721035</v>
       </c>
       <c r="D42">
-        <v>0.9054594643455171</v>
+        <v>-0.9151482562628365</v>
       </c>
       <c r="E42">
-        <v>0.2484646863303569</v>
+        <v>0.1184753033094624</v>
       </c>
       <c r="F42">
-        <v>-0.06242137154477227</v>
+        <v>0.183855410876033</v>
       </c>
       <c r="G42">
-        <v>-0.1079071669838974</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.007710225153943074</v>
+      </c>
+      <c r="H42">
+        <v>-0.01280779063255184</v>
+      </c>
+      <c r="I42">
+        <v>0.03119806175987378</v>
+      </c>
+      <c r="J42">
+        <v>0.04538420962369683</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008096954077757675</v>
+        <v>-0.0008873459376609926</v>
       </c>
       <c r="C43">
-        <v>0.009232215476543761</v>
+        <v>0.01296773050236652</v>
       </c>
       <c r="D43">
-        <v>-0.02720958864342639</v>
+        <v>0.005904182132372165</v>
       </c>
       <c r="E43">
-        <v>0.02905607820899165</v>
+        <v>-0.03088388955034762</v>
       </c>
       <c r="F43">
-        <v>0.008947240415690071</v>
+        <v>-0.005601635975993015</v>
       </c>
       <c r="G43">
-        <v>0.02381191635149675</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.006178699939278372</v>
+      </c>
+      <c r="H43">
+        <v>0.0363832886364906</v>
+      </c>
+      <c r="I43">
+        <v>0.007076798557367986</v>
+      </c>
+      <c r="J43">
+        <v>0.02063479029220609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04304259670836074</v>
+        <v>-0.02825460463200674</v>
       </c>
       <c r="C44">
-        <v>0.03035506858041492</v>
+        <v>0.03341536324198963</v>
       </c>
       <c r="D44">
-        <v>-0.04378594099480013</v>
+        <v>0.001704433036087352</v>
       </c>
       <c r="E44">
-        <v>0.1028339759726093</v>
+        <v>-0.1211540749379231</v>
       </c>
       <c r="F44">
-        <v>-0.04068880336302664</v>
+        <v>-0.03039502003265669</v>
       </c>
       <c r="G44">
-        <v>0.08661483608978232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02750512110919784</v>
+      </c>
+      <c r="H44">
+        <v>0.1111099926417144</v>
+      </c>
+      <c r="I44">
+        <v>0.04199667444040734</v>
+      </c>
+      <c r="J44">
+        <v>0.008630405905368748</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02081205796615274</v>
+        <v>-0.01975509093511232</v>
       </c>
       <c r="C46">
-        <v>0.01465935667654668</v>
+        <v>0.0263673470224229</v>
       </c>
       <c r="D46">
-        <v>-0.03303922594507438</v>
+        <v>0.01708313751413601</v>
       </c>
       <c r="E46">
-        <v>0.02091765656020734</v>
+        <v>-0.04843484966304187</v>
       </c>
       <c r="F46">
-        <v>-0.01926636096847751</v>
+        <v>-0.01311446476810417</v>
       </c>
       <c r="G46">
-        <v>0.03225104509014295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01652650139815588</v>
+      </c>
+      <c r="H46">
+        <v>0.06210863934469903</v>
+      </c>
+      <c r="I46">
+        <v>0.008562669750077878</v>
+      </c>
+      <c r="J46">
+        <v>0.03549637643031621</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.07781621407723611</v>
+        <v>-0.08608694915786945</v>
       </c>
       <c r="C47">
-        <v>0.003622069782862835</v>
+        <v>0.01397844564262618</v>
       </c>
       <c r="D47">
-        <v>-0.01897641457937058</v>
+        <v>0.02161518018411866</v>
       </c>
       <c r="E47">
-        <v>-0.008038935749865316</v>
+        <v>-0.006161186806311223</v>
       </c>
       <c r="F47">
-        <v>-0.003844369212010655</v>
+        <v>0.003613772363775987</v>
       </c>
       <c r="G47">
-        <v>0.03878625070388694</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.02717712150375684</v>
+      </c>
+      <c r="H47">
+        <v>0.07064421187783723</v>
+      </c>
+      <c r="I47">
+        <v>0.01736256063772859</v>
+      </c>
+      <c r="J47">
+        <v>0.02786371661320295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01048227888252544</v>
+        <v>-0.01282737118725675</v>
       </c>
       <c r="C48">
-        <v>0.01725479635948987</v>
+        <v>0.01913518164479765</v>
       </c>
       <c r="D48">
-        <v>-0.0212511974169592</v>
+        <v>0.005077328836130364</v>
       </c>
       <c r="E48">
-        <v>0.03348573683412729</v>
+        <v>-0.04046597365958666</v>
       </c>
       <c r="F48">
-        <v>-0.006351042031324053</v>
+        <v>-0.01184956832609614</v>
       </c>
       <c r="G48">
-        <v>0.003382911830991794</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.002588999642231417</v>
+      </c>
+      <c r="H48">
+        <v>0.02513938798951701</v>
+      </c>
+      <c r="I48">
+        <v>0.01127152446975397</v>
+      </c>
+      <c r="J48">
+        <v>0.01456336670210362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07442425038977611</v>
+        <v>-0.07923144637833601</v>
       </c>
       <c r="C50">
-        <v>0.02959177570846169</v>
+        <v>0.03556306013355785</v>
       </c>
       <c r="D50">
-        <v>-0.01200138465799611</v>
+        <v>0.01833704741071978</v>
       </c>
       <c r="E50">
-        <v>-0.02067564044521748</v>
+        <v>-0.01050323976589794</v>
       </c>
       <c r="F50">
-        <v>-0.01387908661965687</v>
+        <v>0.005617803981865572</v>
       </c>
       <c r="G50">
-        <v>0.007273655622248416</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.00656926314951667</v>
+      </c>
+      <c r="H50">
+        <v>0.04990716191968041</v>
+      </c>
+      <c r="I50">
+        <v>0.01938474972960373</v>
+      </c>
+      <c r="J50">
+        <v>-0.002723147934980893</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06575291671727178</v>
+        <v>-0.04730398130279272</v>
       </c>
       <c r="C51">
-        <v>-0.03024573222422295</v>
+        <v>-0.00906178855288778</v>
       </c>
       <c r="D51">
-        <v>-0.03733568934687097</v>
+        <v>0.007451939658451205</v>
       </c>
       <c r="E51">
-        <v>0.07222531207503537</v>
+        <v>-0.1029158810759255</v>
       </c>
       <c r="F51">
-        <v>-0.04618679401914903</v>
+        <v>-0.004158390841661969</v>
       </c>
       <c r="G51">
-        <v>0.02438289635871731</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04796178213974232</v>
+      </c>
+      <c r="H51">
+        <v>0.04940792493210622</v>
+      </c>
+      <c r="I51">
+        <v>0.02590633267496138</v>
+      </c>
+      <c r="J51">
+        <v>0.06709628091833726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.13964213776571</v>
+        <v>-0.1276600491089577</v>
       </c>
       <c r="C53">
-        <v>0.007746098901685315</v>
+        <v>0.03338585721678409</v>
       </c>
       <c r="D53">
-        <v>-0.03999799825077493</v>
+        <v>0.0462136304519153</v>
       </c>
       <c r="E53">
-        <v>-0.01573419426228058</v>
+        <v>0.01403645657143665</v>
       </c>
       <c r="F53">
-        <v>-0.01167298279614021</v>
+        <v>0.007632846098031887</v>
       </c>
       <c r="G53">
-        <v>0.03401017009867924</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02961947651602995</v>
+      </c>
+      <c r="H53">
+        <v>0.01627668014131897</v>
+      </c>
+      <c r="I53">
+        <v>-0.01444811353053277</v>
+      </c>
+      <c r="J53">
+        <v>0.08707193650961598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.01990432117399575</v>
+        <v>-0.02143937016526572</v>
       </c>
       <c r="C54">
-        <v>-0.007617192593782524</v>
+        <v>0.003191758236546426</v>
       </c>
       <c r="D54">
-        <v>-0.03927908301974475</v>
+        <v>0.02396148391925471</v>
       </c>
       <c r="E54">
-        <v>0.03013811614307428</v>
+        <v>-0.04259315493459832</v>
       </c>
       <c r="F54">
-        <v>-0.03118774595031271</v>
+        <v>-0.02226377880675163</v>
       </c>
       <c r="G54">
-        <v>0.04028493938532193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03015848754166364</v>
+      </c>
+      <c r="H54">
+        <v>0.06863902100327543</v>
+      </c>
+      <c r="I54">
+        <v>0.04095197346823046</v>
+      </c>
+      <c r="J54">
+        <v>0.03147932728937618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09575714072789188</v>
+        <v>-0.1021995259687143</v>
       </c>
       <c r="C55">
-        <v>-0.004386944707851918</v>
+        <v>0.01627843346456236</v>
       </c>
       <c r="D55">
-        <v>-0.03455233140582046</v>
+        <v>0.02951147858713696</v>
       </c>
       <c r="E55">
-        <v>0.004916294528146236</v>
+        <v>0.01675989643946383</v>
       </c>
       <c r="F55">
-        <v>0.01948221197574366</v>
+        <v>-0.03168809885972925</v>
       </c>
       <c r="G55">
-        <v>0.0288963387639333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005219896140541515</v>
+      </c>
+      <c r="H55">
+        <v>0.03441406027217948</v>
+      </c>
+      <c r="I55">
+        <v>-0.02432640841940886</v>
+      </c>
+      <c r="J55">
+        <v>0.07028936819343296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.177380283243024</v>
+        <v>-0.169233288456251</v>
       </c>
       <c r="C56">
-        <v>-0.0243397572480858</v>
+        <v>0.01149785335227181</v>
       </c>
       <c r="D56">
-        <v>-0.0549237710731889</v>
+        <v>0.0889823795117492</v>
       </c>
       <c r="E56">
-        <v>-0.06768777780434773</v>
+        <v>0.06890499772973305</v>
       </c>
       <c r="F56">
-        <v>0.04305867353835882</v>
+        <v>-0.003438250212473708</v>
       </c>
       <c r="G56">
-        <v>0.02571445670630169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.014349906843507</v>
+      </c>
+      <c r="H56">
+        <v>-0.03087402640769574</v>
+      </c>
+      <c r="I56">
+        <v>-0.05948740958597726</v>
+      </c>
+      <c r="J56">
+        <v>0.0744277514993911</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09744424160206763</v>
+        <v>-0.07524055904358348</v>
       </c>
       <c r="C57">
-        <v>0.01872737942441435</v>
+        <v>0.02287543636982488</v>
       </c>
       <c r="D57">
-        <v>-0.03812760078355734</v>
+        <v>0.006476194941377795</v>
       </c>
       <c r="E57">
-        <v>0.06682685120452128</v>
+        <v>-0.08255791779535428</v>
       </c>
       <c r="F57">
-        <v>0.008297497519569137</v>
+        <v>-0.01108967686663266</v>
       </c>
       <c r="G57">
-        <v>0.04449858969413497</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.005545913967167439</v>
+      </c>
+      <c r="H57">
+        <v>0.05217549418073136</v>
+      </c>
+      <c r="I57">
+        <v>-0.01505107268077299</v>
+      </c>
+      <c r="J57">
+        <v>0.01953648819991049</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1717746022221138</v>
+        <v>-0.1947462523225042</v>
       </c>
       <c r="C58">
-        <v>-0.007975637734094465</v>
+        <v>0.03350430836968696</v>
       </c>
       <c r="D58">
-        <v>0.0272488111418834</v>
+        <v>-0.005036881282082608</v>
       </c>
       <c r="E58">
-        <v>0.07778651732471982</v>
+        <v>-0.1508405446273021</v>
       </c>
       <c r="F58">
-        <v>0.07759285700237305</v>
+        <v>0.004964639873838808</v>
       </c>
       <c r="G58">
-        <v>0.1754033812594188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1552265198574722</v>
+      </c>
+      <c r="H58">
+        <v>0.3023927733052841</v>
+      </c>
+      <c r="I58">
+        <v>0.1603323549135194</v>
+      </c>
+      <c r="J58">
+        <v>-0.1636036854943124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01462174434560983</v>
+        <v>-0.01861163475729143</v>
       </c>
       <c r="C59">
-        <v>-0.1995918078443327</v>
+        <v>-0.1962579063831354</v>
       </c>
       <c r="D59">
-        <v>-0.0271874147886783</v>
+        <v>0.01035705317139323</v>
       </c>
       <c r="E59">
-        <v>0.03805595444854643</v>
+        <v>-0.05388498740874232</v>
       </c>
       <c r="F59">
-        <v>0.005222006676911616</v>
+        <v>0.009646291380547135</v>
       </c>
       <c r="G59">
-        <v>-0.04861092984143759</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0003967849967020865</v>
+      </c>
+      <c r="H59">
+        <v>-0.03508347529384488</v>
+      </c>
+      <c r="I59">
+        <v>0.07834363669940438</v>
+      </c>
+      <c r="J59">
+        <v>0.04070864807216053</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1726883492304332</v>
+        <v>-0.1769008426649203</v>
       </c>
       <c r="C60">
-        <v>-0.1190723272178592</v>
+        <v>-0.06570417105587881</v>
       </c>
       <c r="D60">
-        <v>-0.09025080066015008</v>
+        <v>0.02044009715662748</v>
       </c>
       <c r="E60">
-        <v>0.1742521957015869</v>
+        <v>-0.2075383287292506</v>
       </c>
       <c r="F60">
-        <v>-0.003277759041977346</v>
+        <v>0.0353492626551591</v>
       </c>
       <c r="G60">
-        <v>-0.1487808383094876</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05933850890935312</v>
+      </c>
+      <c r="H60">
+        <v>-0.2295864277771172</v>
+      </c>
+      <c r="I60">
+        <v>-0.106179063498822</v>
+      </c>
+      <c r="J60">
+        <v>-0.04655295798840066</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.05209714030547112</v>
+        <v>-0.0396590515115616</v>
       </c>
       <c r="C61">
-        <v>0.002037084649434666</v>
+        <v>0.01536600725680322</v>
       </c>
       <c r="D61">
-        <v>-0.007767088243348165</v>
+        <v>0.002093562089287099</v>
       </c>
       <c r="E61">
-        <v>0.03977076736029996</v>
+        <v>-0.04594501206423699</v>
       </c>
       <c r="F61">
-        <v>-0.002514014794382219</v>
+        <v>-0.002684320305910528</v>
       </c>
       <c r="G61">
-        <v>-0.03690585696165931</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0002817059011761483</v>
+      </c>
+      <c r="H61">
+        <v>0.004652775765467308</v>
+      </c>
+      <c r="I61">
+        <v>-0.02264054909177185</v>
+      </c>
+      <c r="J61">
+        <v>-0.03067902893943341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.03521911106576631</v>
+        <v>-0.02732777111790385</v>
       </c>
       <c r="C63">
-        <v>-0.008116296056116837</v>
+        <v>0.01278867331350459</v>
       </c>
       <c r="D63">
-        <v>-0.02252058608026344</v>
+        <v>0.01005033385106869</v>
       </c>
       <c r="E63">
-        <v>0.04016889489320615</v>
+        <v>-0.03569775800875323</v>
       </c>
       <c r="F63">
-        <v>0.0002863482698281023</v>
+        <v>-0.01064904811101093</v>
       </c>
       <c r="G63">
-        <v>0.01573356533311403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.001232578014006422</v>
+      </c>
+      <c r="H63">
+        <v>0.04264569213255177</v>
+      </c>
+      <c r="I63">
+        <v>0.01350879199608721</v>
+      </c>
+      <c r="J63">
+        <v>0.04364935212793297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09469814237512801</v>
+        <v>-0.06821725398484547</v>
       </c>
       <c r="C64">
-        <v>0.001857358371279258</v>
+        <v>0.02648374927217367</v>
       </c>
       <c r="D64">
-        <v>-0.09631728617579935</v>
+        <v>0.03907978845314392</v>
       </c>
       <c r="E64">
-        <v>0.06720545930992153</v>
+        <v>-0.06343102624025131</v>
       </c>
       <c r="F64">
-        <v>-0.07801451949096019</v>
+        <v>-0.06187188987302471</v>
       </c>
       <c r="G64">
-        <v>-0.03210348403733322</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06700668245013651</v>
+      </c>
+      <c r="H64">
+        <v>-0.009397491167648301</v>
+      </c>
+      <c r="I64">
+        <v>-0.02934249431565387</v>
+      </c>
+      <c r="J64">
+        <v>0.06778008812058797</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01041616712696499</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.006039887399267511</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.002456623242730315</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004404816469856791</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.00203614206711025</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01349013895376551</v>
+      </c>
+      <c r="H65">
+        <v>-0.001149378742488644</v>
+      </c>
+      <c r="I65">
+        <v>-0.0009482155304263458</v>
+      </c>
+      <c r="J65">
+        <v>0.0005073762414678219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1009044650667549</v>
+        <v>-0.07519287507105142</v>
       </c>
       <c r="C66">
-        <v>0.01123069345401113</v>
+        <v>0.03550891781355761</v>
       </c>
       <c r="D66">
-        <v>-0.06698943447464925</v>
+        <v>0.04113586672673776</v>
       </c>
       <c r="E66">
-        <v>0.06920847522285987</v>
+        <v>-0.08886430124837677</v>
       </c>
       <c r="F66">
-        <v>-0.008944862950679935</v>
+        <v>-0.00430869165541674</v>
       </c>
       <c r="G66">
-        <v>-0.01279840615273685</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.003267050309664617</v>
+      </c>
+      <c r="H66">
+        <v>0.02185874612656581</v>
+      </c>
+      <c r="I66">
+        <v>-0.04174234822983342</v>
+      </c>
+      <c r="J66">
+        <v>-0.01447999602394544</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.05745059405382519</v>
+        <v>-0.03963893510956568</v>
       </c>
       <c r="C67">
-        <v>-0.01667408835023883</v>
+        <v>-0.00780501399648717</v>
       </c>
       <c r="D67">
-        <v>-0.02073006099512179</v>
+        <v>0.003873169214782858</v>
       </c>
       <c r="E67">
-        <v>0.02401811496339856</v>
+        <v>-0.04198752704485174</v>
       </c>
       <c r="F67">
-        <v>-0.0007065029349475421</v>
+        <v>-0.008219280382227519</v>
       </c>
       <c r="G67">
-        <v>0.0172571788397665</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02331944780001138</v>
+      </c>
+      <c r="H67">
+        <v>-0.0008235698586676619</v>
+      </c>
+      <c r="I67">
+        <v>-0.02721490148779942</v>
+      </c>
+      <c r="J67">
+        <v>-0.02144163426188209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.01092933048286981</v>
+        <v>-0.02786514960104713</v>
       </c>
       <c r="C68">
-        <v>-0.2469099036338415</v>
+        <v>-0.2374787748997063</v>
       </c>
       <c r="D68">
-        <v>-0.004624566998952914</v>
+        <v>0.0001003303565389865</v>
       </c>
       <c r="E68">
-        <v>0.03419941718820021</v>
+        <v>-0.0396258746592477</v>
       </c>
       <c r="F68">
-        <v>0.01870884909318291</v>
+        <v>-0.004362367874133352</v>
       </c>
       <c r="G68">
-        <v>-0.03381149361731724</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01221721505247238</v>
+      </c>
+      <c r="H68">
+        <v>-0.03930689104912341</v>
+      </c>
+      <c r="I68">
+        <v>0.1522268008666664</v>
+      </c>
+      <c r="J68">
+        <v>0.09272345919903223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06386689711459496</v>
+        <v>-0.06765203595895276</v>
       </c>
       <c r="C69">
-        <v>0.006138639774927714</v>
+        <v>0.01091943609124398</v>
       </c>
       <c r="D69">
-        <v>-0.02750853111026129</v>
+        <v>0.02703547468983507</v>
       </c>
       <c r="E69">
-        <v>-0.00816233254557501</v>
+        <v>-0.01222134565326159</v>
       </c>
       <c r="F69">
-        <v>0.004775633429042192</v>
+        <v>0.006971601427097421</v>
       </c>
       <c r="G69">
-        <v>0.002430671228245078</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0179089896026532</v>
+      </c>
+      <c r="H69">
+        <v>0.05089747035719665</v>
+      </c>
+      <c r="I69">
+        <v>0.0003783122703040186</v>
+      </c>
+      <c r="J69">
+        <v>0.009182671340297245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.008438508228309639</v>
+        <v>-0.03180773650237956</v>
       </c>
       <c r="C71">
-        <v>-0.2238798472000119</v>
+        <v>-0.2293589808948962</v>
       </c>
       <c r="D71">
-        <v>-0.008069293173903314</v>
+        <v>-0.02119434094848951</v>
       </c>
       <c r="E71">
-        <v>0.0573067488665741</v>
+        <v>-0.05972873124419627</v>
       </c>
       <c r="F71">
-        <v>0.01955188369429247</v>
+        <v>0.02295216657759681</v>
       </c>
       <c r="G71">
-        <v>-0.1543241929093736</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.001464832777984317</v>
+      </c>
+      <c r="H71">
+        <v>-0.06062940664175261</v>
+      </c>
+      <c r="I71">
+        <v>0.1619972489850928</v>
+      </c>
+      <c r="J71">
+        <v>0.03340299397157735</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1009499295310257</v>
+        <v>-0.1106353809924057</v>
       </c>
       <c r="C72">
-        <v>-0.02416000032101782</v>
+        <v>-0.009519222274428869</v>
       </c>
       <c r="D72">
-        <v>-0.06185080130072369</v>
+        <v>0.06074936440030057</v>
       </c>
       <c r="E72">
-        <v>0.05039776489016584</v>
+        <v>-0.08458420522182403</v>
       </c>
       <c r="F72">
-        <v>0.007662647388016717</v>
+        <v>-0.01664429586487583</v>
       </c>
       <c r="G72">
-        <v>0.01510586245613098</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03345536011319997</v>
+      </c>
+      <c r="H72">
+        <v>-0.001794347267930333</v>
+      </c>
+      <c r="I72">
+        <v>0.006479984451141329</v>
+      </c>
+      <c r="J72">
+        <v>-0.02293684437970708</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2694792581683413</v>
+        <v>-0.2715337293383857</v>
       </c>
       <c r="C73">
-        <v>-0.2186528039392881</v>
+        <v>-0.1471998754428664</v>
       </c>
       <c r="D73">
-        <v>-0.0892191946791296</v>
+        <v>-0.008183118004224485</v>
       </c>
       <c r="E73">
-        <v>0.2704244635265455</v>
+        <v>-0.3207198039496598</v>
       </c>
       <c r="F73">
-        <v>0.04707322629838227</v>
+        <v>0.06545556759991755</v>
       </c>
       <c r="G73">
-        <v>-0.377064702761279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1366501411399782</v>
+      </c>
+      <c r="H73">
+        <v>-0.4164412897874509</v>
+      </c>
+      <c r="I73">
+        <v>-0.2341175313202978</v>
+      </c>
+      <c r="J73">
+        <v>-0.330373703209128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1540362306149926</v>
+        <v>-0.1531939072607979</v>
       </c>
       <c r="C74">
-        <v>-0.01697316449799801</v>
+        <v>0.007077767949180828</v>
       </c>
       <c r="D74">
-        <v>-0.04566557347770431</v>
+        <v>0.04627478400606999</v>
       </c>
       <c r="E74">
-        <v>0.001216488070673047</v>
+        <v>0.02457627827070628</v>
       </c>
       <c r="F74">
-        <v>0.04550305587505245</v>
+        <v>-0.001455309719397078</v>
       </c>
       <c r="G74">
-        <v>0.009775289586662029</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01865331370849686</v>
+      </c>
+      <c r="H74">
+        <v>-0.02215080879908365</v>
+      </c>
+      <c r="I74">
+        <v>-0.06095283381968682</v>
+      </c>
+      <c r="J74">
+        <v>0.07927083450532212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2355961954726097</v>
+        <v>-0.2456500095280092</v>
       </c>
       <c r="C75">
-        <v>-0.0230291710408991</v>
+        <v>0.01537092100808842</v>
       </c>
       <c r="D75">
-        <v>-0.02001907975284896</v>
+        <v>0.1027271539018739</v>
       </c>
       <c r="E75">
-        <v>-0.09657121305240664</v>
+        <v>0.1122143463629202</v>
       </c>
       <c r="F75">
-        <v>0.01853707432281831</v>
+        <v>0.0233166158735484</v>
       </c>
       <c r="G75">
-        <v>0.08387099272122668</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.02451514497678517</v>
+      </c>
+      <c r="H75">
+        <v>-0.01258333991745697</v>
+      </c>
+      <c r="I75">
+        <v>-0.06048658562789745</v>
+      </c>
+      <c r="J75">
+        <v>0.1780321153379433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2361390865767234</v>
+        <v>-0.2606935868637556</v>
       </c>
       <c r="C76">
-        <v>-0.01917793432488107</v>
+        <v>0.005188773866860036</v>
       </c>
       <c r="D76">
-        <v>-0.06720805302819817</v>
+        <v>0.1225072938348457</v>
       </c>
       <c r="E76">
-        <v>-0.08791787937647635</v>
+        <v>0.1267803864149061</v>
       </c>
       <c r="F76">
-        <v>0.03103914031570996</v>
+        <v>-0.008603537509316769</v>
       </c>
       <c r="G76">
-        <v>0.04534128007735438</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.01622080315865877</v>
+      </c>
+      <c r="H76">
+        <v>-0.008037408014703719</v>
+      </c>
+      <c r="I76">
+        <v>-0.1150980280057539</v>
+      </c>
+      <c r="J76">
+        <v>0.1567716049729071</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1191346691626129</v>
+        <v>-0.1271081320832268</v>
       </c>
       <c r="C77">
-        <v>0.01681397146258944</v>
+        <v>0.04241399558698567</v>
       </c>
       <c r="D77">
-        <v>-0.0172364241179776</v>
+        <v>-0.04865963102577965</v>
       </c>
       <c r="E77">
-        <v>0.1709275429379284</v>
+        <v>-0.1732803760790786</v>
       </c>
       <c r="F77">
-        <v>0.01907352288536261</v>
+        <v>-0.05819802836483931</v>
       </c>
       <c r="G77">
-        <v>0.1122967913842031</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02394239884979614</v>
+      </c>
+      <c r="H77">
+        <v>0.1468254844554482</v>
+      </c>
+      <c r="I77">
+        <v>0.1354676268004631</v>
+      </c>
+      <c r="J77">
+        <v>0.1095104640945154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09382692214277114</v>
+        <v>-0.08581108621970909</v>
       </c>
       <c r="C78">
-        <v>0.02705177406100267</v>
+        <v>0.05122691148044215</v>
       </c>
       <c r="D78">
-        <v>-0.003415163759309209</v>
+        <v>-0.000525539079187539</v>
       </c>
       <c r="E78">
-        <v>0.09758699233383455</v>
+        <v>-0.08724805131507496</v>
       </c>
       <c r="F78">
-        <v>-1.826830803630616e-05</v>
+        <v>-0.03984714168069837</v>
       </c>
       <c r="G78">
-        <v>-0.0285372986049341</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01331207925690517</v>
+      </c>
+      <c r="H78">
+        <v>0.0176111775065843</v>
+      </c>
+      <c r="I78">
+        <v>0.0257643248989421</v>
+      </c>
+      <c r="J78">
+        <v>0.02625942033712159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07755733797930861</v>
+        <v>-0.08880174679828483</v>
       </c>
       <c r="C80">
-        <v>-0.007770107644420997</v>
+        <v>-0.05424875050421823</v>
       </c>
       <c r="D80">
-        <v>0.02318442653702821</v>
+        <v>-0.1641354915126449</v>
       </c>
       <c r="E80">
-        <v>-0.02661599071179544</v>
+        <v>0.1650292356544304</v>
       </c>
       <c r="F80">
-        <v>-0.002965309081515383</v>
+        <v>-0.9418458394644669</v>
       </c>
       <c r="G80">
-        <v>0.2848290072302785</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.01922517263600827</v>
+      </c>
+      <c r="H80">
+        <v>-0.1309510210377552</v>
+      </c>
+      <c r="I80">
+        <v>-0.009175300404021473</v>
+      </c>
+      <c r="J80">
+        <v>-0.1071078602788218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1669948745815443</v>
+        <v>-0.1742387390972891</v>
       </c>
       <c r="C81">
-        <v>-0.01641611978557673</v>
+        <v>0.004284013849945974</v>
       </c>
       <c r="D81">
-        <v>-0.01950685890776789</v>
+        <v>0.08686064894828666</v>
       </c>
       <c r="E81">
-        <v>-0.1173097343659169</v>
+        <v>0.1317268903478021</v>
       </c>
       <c r="F81">
-        <v>0.04771629009594031</v>
+        <v>0.02552717717161194</v>
       </c>
       <c r="G81">
-        <v>0.05589707043780423</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.01353157002239569</v>
+      </c>
+      <c r="H81">
+        <v>-0.009293416803607069</v>
+      </c>
+      <c r="I81">
+        <v>-0.05950623796833009</v>
+      </c>
+      <c r="J81">
+        <v>0.1272465779546149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.07495811408077652</v>
+        <v>-0.0641083880702913</v>
       </c>
       <c r="C83">
-        <v>0.02431879701772176</v>
+        <v>0.03555424622084458</v>
       </c>
       <c r="D83">
-        <v>0.05332100233454803</v>
+        <v>-0.04499661489354437</v>
       </c>
       <c r="E83">
-        <v>0.09313689737620442</v>
+        <v>-0.07159971959781329</v>
       </c>
       <c r="F83">
-        <v>-0.06770770365547513</v>
+        <v>0.007501565538387998</v>
       </c>
       <c r="G83">
-        <v>0.05201141763150045</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04746838799944279</v>
+      </c>
+      <c r="H83">
+        <v>0.04467991360321634</v>
+      </c>
+      <c r="I83">
+        <v>-0.01285302837088178</v>
+      </c>
+      <c r="J83">
+        <v>0.08789235035956051</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2467062872905295</v>
+        <v>-0.2580520296225686</v>
       </c>
       <c r="C85">
-        <v>0.03519749798637768</v>
+        <v>0.04847058599837654</v>
       </c>
       <c r="D85">
-        <v>-0.003786925017951356</v>
+        <v>0.08675019089935884</v>
       </c>
       <c r="E85">
-        <v>-0.1037061156073365</v>
+        <v>0.1370099549689752</v>
       </c>
       <c r="F85">
-        <v>0.007457489301523857</v>
+        <v>-0.01020060132001421</v>
       </c>
       <c r="G85">
-        <v>0.1153704567882545</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.02029491595898453</v>
+      </c>
+      <c r="H85">
+        <v>0.02590661745282387</v>
+      </c>
+      <c r="I85">
+        <v>-0.08381542411805061</v>
+      </c>
+      <c r="J85">
+        <v>0.1990495139628544</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04672089394408425</v>
+        <v>-0.028854101338219</v>
       </c>
       <c r="C86">
-        <v>0.03062058447165762</v>
+        <v>0.04424101274258577</v>
       </c>
       <c r="D86">
-        <v>-0.02822761630156579</v>
+        <v>0.00781101644022477</v>
       </c>
       <c r="E86">
-        <v>0.04823182296097642</v>
+        <v>-0.05936725120051889</v>
       </c>
       <c r="F86">
-        <v>0.006495462292488716</v>
+        <v>-0.03378022124799866</v>
       </c>
       <c r="G86">
-        <v>0.003510699214181416</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.00810826122148459</v>
+      </c>
+      <c r="H86">
+        <v>0.03235444985983092</v>
+      </c>
+      <c r="I86">
+        <v>0.07801993789513363</v>
+      </c>
+      <c r="J86">
+        <v>-0.003995808358769053</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.03244202403595042</v>
+        <v>-0.03899737534707368</v>
       </c>
       <c r="C87">
-        <v>-0.0516442272161196</v>
+        <v>-0.02444389205223561</v>
       </c>
       <c r="D87">
-        <v>-0.02657420873401162</v>
+        <v>0.002155559865630206</v>
       </c>
       <c r="E87">
-        <v>0.05530698175095837</v>
+        <v>-0.08446495919493947</v>
       </c>
       <c r="F87">
-        <v>-0.01472931012857296</v>
+        <v>-0.01868473096908244</v>
       </c>
       <c r="G87">
-        <v>-0.1761736981869968</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.006391293203106682</v>
+      </c>
+      <c r="H87">
+        <v>-0.01659156248912699</v>
+      </c>
+      <c r="I87">
+        <v>0.04071448975579407</v>
+      </c>
+      <c r="J87">
+        <v>-0.1066759702723957</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03307482095180311</v>
+        <v>-0.02110833610892618</v>
       </c>
       <c r="C88">
-        <v>0.02039592797447619</v>
+        <v>0.01491645194775156</v>
       </c>
       <c r="D88">
-        <v>-0.01219652362707748</v>
+        <v>0.0126809683291983</v>
       </c>
       <c r="E88">
-        <v>-0.00254504086873137</v>
+        <v>-0.003849511161358067</v>
       </c>
       <c r="F88">
-        <v>0.007479365706725742</v>
+        <v>-0.02185702441247654</v>
       </c>
       <c r="G88">
-        <v>0.05348632484899105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02706082490666583</v>
+      </c>
+      <c r="H88">
+        <v>0.04899762405086129</v>
+      </c>
+      <c r="I88">
+        <v>-0.008424338436397224</v>
+      </c>
+      <c r="J88">
+        <v>-0.02136005490573181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.02716850127701026</v>
+        <v>-0.04251707596117929</v>
       </c>
       <c r="C89">
-        <v>-0.433938807138451</v>
+        <v>-0.3996747694592393</v>
       </c>
       <c r="D89">
-        <v>0.09543407395698279</v>
+        <v>-0.05485265487000651</v>
       </c>
       <c r="E89">
-        <v>0.02428563618182062</v>
+        <v>-0.04607342813723107</v>
       </c>
       <c r="F89">
-        <v>-0.04155660780620843</v>
+        <v>0.03533244006920757</v>
       </c>
       <c r="G89">
-        <v>0.035749875527813</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.07355798372255221</v>
+      </c>
+      <c r="H89">
+        <v>0.00807142414615367</v>
+      </c>
+      <c r="I89">
+        <v>0.2401153077874898</v>
+      </c>
+      <c r="J89">
+        <v>0.177134627716705</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.03104483756383226</v>
+        <v>-0.02249994370608386</v>
       </c>
       <c r="C90">
-        <v>-0.3056218665387299</v>
+        <v>-0.3283713022237149</v>
       </c>
       <c r="D90">
-        <v>0.006515204558916958</v>
+        <v>-0.03004631127795803</v>
       </c>
       <c r="E90">
-        <v>0.03921326945361384</v>
+        <v>-0.03119976037925352</v>
       </c>
       <c r="F90">
-        <v>0.01189004814860492</v>
+        <v>-0.007508457568720801</v>
       </c>
       <c r="G90">
-        <v>-0.06824746381918777</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.009202033085525935</v>
+      </c>
+      <c r="H90">
+        <v>-0.05007910150869301</v>
+      </c>
+      <c r="I90">
+        <v>0.16826390714355</v>
+      </c>
+      <c r="J90">
+        <v>0.1266077102153542</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3214073008079321</v>
+        <v>-0.3264129568703437</v>
       </c>
       <c r="C91">
-        <v>-0.009606262477345079</v>
+        <v>0.02226667137534057</v>
       </c>
       <c r="D91">
-        <v>0.02480678917661376</v>
+        <v>0.1031241872684584</v>
       </c>
       <c r="E91">
-        <v>-0.2386968512024048</v>
+        <v>0.2595906953257821</v>
       </c>
       <c r="F91">
-        <v>0.06907989735820516</v>
+        <v>0.03563298060295441</v>
       </c>
       <c r="G91">
-        <v>0.2828068392919958</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02335816561837547</v>
+      </c>
+      <c r="H91">
+        <v>0.002664461657014156</v>
+      </c>
+      <c r="I91">
+        <v>-0.1562824409922719</v>
+      </c>
+      <c r="J91">
+        <v>0.3461410845268871</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03685524301964574</v>
+        <v>-0.06773197785447206</v>
       </c>
       <c r="C92">
-        <v>-0.4590203557257002</v>
+        <v>-0.4824150820736418</v>
       </c>
       <c r="D92">
-        <v>0.2164296034121316</v>
+        <v>-0.08125198503045199</v>
       </c>
       <c r="E92">
-        <v>-0.06471760813952922</v>
+        <v>0.1317394906046898</v>
       </c>
       <c r="F92">
-        <v>0.05352323158138308</v>
+        <v>0.02187432729377895</v>
       </c>
       <c r="G92">
-        <v>0.4853386415466336</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.03981068836689948</v>
+      </c>
+      <c r="H92">
+        <v>0.5767301731146389</v>
+      </c>
+      <c r="I92">
+        <v>-0.5163469033135077</v>
+      </c>
+      <c r="J92">
+        <v>-0.3097751767072211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.03575860976059147</v>
+        <v>-0.02746651078362358</v>
       </c>
       <c r="C93">
-        <v>-0.3682557133403986</v>
+        <v>-0.4053747482550171</v>
       </c>
       <c r="D93">
-        <v>0.08599275077316709</v>
+        <v>-0.06224930289858083</v>
       </c>
       <c r="E93">
-        <v>-0.01569241370938741</v>
+        <v>0.02664892176029303</v>
       </c>
       <c r="F93">
-        <v>0.003488943945633666</v>
+        <v>0.01391942289805795</v>
       </c>
       <c r="G93">
-        <v>0.0317983145999629</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03949112594327685</v>
+      </c>
+      <c r="H93">
+        <v>-0.05754484134504788</v>
+      </c>
+      <c r="I93">
+        <v>0.1580199646463237</v>
+      </c>
+      <c r="J93">
+        <v>0.165741549755469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.3257584809376765</v>
+        <v>-0.3346228466810807</v>
       </c>
       <c r="C94">
-        <v>-0.01062048948789027</v>
+        <v>0.0180581529343354</v>
       </c>
       <c r="D94">
-        <v>0.1488384490086167</v>
+        <v>0.1629000641211056</v>
       </c>
       <c r="E94">
-        <v>-0.550718573731848</v>
+        <v>0.4242314960504187</v>
       </c>
       <c r="F94">
-        <v>0.3607851192871916</v>
+        <v>0.1124233818570401</v>
       </c>
       <c r="G94">
-        <v>-0.3139553352365152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1913167385059133</v>
+      </c>
+      <c r="H94">
+        <v>0.025000026812455</v>
+      </c>
+      <c r="I94">
+        <v>0.5088109282172872</v>
+      </c>
+      <c r="J94">
+        <v>-0.5203814191604007</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1893692010434083</v>
+        <v>-0.143824038837749</v>
       </c>
       <c r="C95">
-        <v>-0.05450005179784161</v>
+        <v>0.04965375407363734</v>
       </c>
       <c r="D95">
-        <v>0.007468269562661837</v>
+        <v>0.03152144820290882</v>
       </c>
       <c r="E95">
-        <v>-0.2626492558866477</v>
+        <v>0.003629550899629899</v>
       </c>
       <c r="F95">
-        <v>-0.8990627559103684</v>
+        <v>0.06079776906886698</v>
       </c>
       <c r="G95">
-        <v>-0.07166197550900945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9325313961768903</v>
+      </c>
+      <c r="H95">
+        <v>-0.07507874231040611</v>
+      </c>
+      <c r="I95">
+        <v>0.06420328807566961</v>
+      </c>
+      <c r="J95">
+        <v>-0.2097528265372256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2058121953997447</v>
+        <v>-0.2053337608810097</v>
       </c>
       <c r="C98">
-        <v>-0.138908055147891</v>
+        <v>-0.08994934911781745</v>
       </c>
       <c r="D98">
-        <v>-0.03053793205203716</v>
+        <v>-0.01216461693037013</v>
       </c>
       <c r="E98">
-        <v>0.1156919634265782</v>
+        <v>-0.1692119207249301</v>
       </c>
       <c r="F98">
-        <v>0.002227962504941915</v>
+        <v>0.06741395938535057</v>
       </c>
       <c r="G98">
-        <v>-0.2195991712586982</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.06091404000520986</v>
+      </c>
+      <c r="H98">
+        <v>-0.2975029604207844</v>
+      </c>
+      <c r="I98">
+        <v>-0.1890172748235567</v>
+      </c>
+      <c r="J98">
+        <v>-0.1181062413578895</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.0187539029332136</v>
+        <v>-0.01295388185381562</v>
       </c>
       <c r="C101">
-        <v>0.01978060794253667</v>
+        <v>0.03180874066681345</v>
       </c>
       <c r="D101">
-        <v>-0.02793759480231794</v>
+        <v>0.02269267744659965</v>
       </c>
       <c r="E101">
-        <v>0.03348482905845495</v>
+        <v>-0.06124470838894766</v>
       </c>
       <c r="F101">
-        <v>-0.003064660011588927</v>
+        <v>-0.0320501626583531</v>
       </c>
       <c r="G101">
-        <v>0.03666664772800514</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.002439310922240068</v>
+      </c>
+      <c r="H101">
+        <v>0.1222399534731157</v>
+      </c>
+      <c r="I101">
+        <v>0.01755474583027215</v>
+      </c>
+      <c r="J101">
+        <v>-0.001547859840290771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1228638677946325</v>
+        <v>-0.1220481922724522</v>
       </c>
       <c r="C102">
-        <v>-0.00826884451857319</v>
+        <v>0.02089483428327066</v>
       </c>
       <c r="D102">
-        <v>-0.01668899778482684</v>
+        <v>0.05333960686920129</v>
       </c>
       <c r="E102">
-        <v>-0.07531216317497244</v>
+        <v>0.08139721094815684</v>
       </c>
       <c r="F102">
-        <v>-0.02680080164363282</v>
+        <v>-0.001962776350380702</v>
       </c>
       <c r="G102">
-        <v>0.01995457613039698</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.04183055605112643</v>
+      </c>
+      <c r="H102">
+        <v>-0.003536950908680839</v>
+      </c>
+      <c r="I102">
+        <v>0.0001106576454655421</v>
+      </c>
+      <c r="J102">
+        <v>0.06534710778821907</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01561519334962004</v>
+        <v>-0.0229629607512582</v>
       </c>
       <c r="C103">
-        <v>0.004285025813253495</v>
+        <v>0.005335787431998389</v>
       </c>
       <c r="D103">
-        <v>-0.004169201026631169</v>
+        <v>0.01531250545200738</v>
       </c>
       <c r="E103">
-        <v>-0.03239260854211886</v>
+        <v>0.0148603841624516</v>
       </c>
       <c r="F103">
-        <v>0.009275864246788909</v>
+        <v>-0.002694425021246022</v>
       </c>
       <c r="G103">
-        <v>-0.01925819374160818</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01629013765557553</v>
+      </c>
+      <c r="H103">
+        <v>0.003540117919201328</v>
+      </c>
+      <c r="I103">
+        <v>0.02765073044359614</v>
+      </c>
+      <c r="J103">
+        <v>0.008739271244400576</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
